--- a/design/Commercial/Plug Load Characteristics.xlsx
+++ b/design/Commercial/Plug Load Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfrank1\Git\prototype-building-electrical-models\design\Commercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48E1D0-F7CD-4602-8E5A-D8656C3221B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656FA241-69FE-4A81-9690-B98945B95589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="6" r:id="rId1"/>
@@ -241,6 +241,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{D7121495-0A52-453C-B4E8-4EC8A231C7D8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This value is an </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>input</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> power rating because it represents both the DC load and the load-packaged converter loss.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1853,9 +1885,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1881,6 +1913,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1950,6 +1983,13 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2152,25 +2192,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2179,12 +2200,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2219,7 +2234,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2227,12 +2242,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2255,8 +2264,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2375,6 +2382,39 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2392,10 +2432,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2676,14 +2712,14 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2802,105 +2838,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="57">
+      <c r="B6" s="44">
         <v>2012</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="45">
         <v>6300000</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="48">
         <f>C6/C$6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="54">
+      <c r="B7" s="41">
         <v>2016</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="46">
         <v>8500000</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="25">
         <f t="shared" ref="D7:D11" si="0">C7/C$6</f>
         <v>1.3492063492063493</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="B8" s="24">
         <v>2020</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="50">
         <v>9400000</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>1.4920634920634921</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="54">
+      <c r="B9" s="41">
         <v>2030</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="46">
         <v>13000000</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="25">
         <f t="shared" si="0"/>
         <v>2.0634920634920637</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="54">
+      <c r="B10" s="41">
         <v>2040</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="46">
         <v>17000000</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>2.6984126984126986</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="55">
+      <c r="B11" s="42">
         <v>2050</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="47">
         <v>23000000</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="49">
         <f t="shared" si="0"/>
         <v>3.6507936507936507</v>
       </c>
@@ -2937,52 +2973,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="84"/>
+      <c r="E2" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="86"/>
+      <c r="E3" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="2:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="86"/>
+      <c r="E4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2990,16 +3026,16 @@
       <c r="B6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="26">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="44">
         <v>2012</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="45">
         <v>581654000</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="48">
         <f>F6/F$6</f>
         <v>1</v>
       </c>
@@ -3008,16 +3044,16 @@
       <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="41">
         <v>2015</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="46">
         <v>472000000</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="25">
         <f t="shared" ref="G7:G12" si="0">F7/F$6</f>
         <v>0.81147898922727257</v>
       </c>
@@ -3026,16 +3062,16 @@
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="26">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="41">
         <v>2018</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="46">
         <v>466123000</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="25">
         <f t="shared" si="0"/>
         <v>0.80137504427030504</v>
       </c>
@@ -3044,16 +3080,16 @@
       <c r="B9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="26">
         <v>0.129</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="24">
         <v>2020</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="50">
         <v>466398000</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>0.80184783393563874</v>
       </c>
@@ -3062,16 +3098,16 @@
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="26">
         <v>0.215</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="41">
         <v>2030</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="46">
         <v>594836000</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>1.022662957703377</v>
       </c>
@@ -3080,44 +3116,44 @@
       <c r="B11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="41">
         <v>2040</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="46">
         <v>712781000</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>1.2254381470771283</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="31">
         <f>C9/C11</f>
         <v>0.57333333333333336</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="42">
         <v>2050</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="47">
         <v>909102000</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="49">
         <f t="shared" si="0"/>
         <v>1.562960110306127</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="32">
         <f>C11</f>
         <v>0.22500000000000001</v>
       </c>
@@ -3150,45 +3186,45 @@
     <col min="1" max="1" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" style="64" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="90.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="90.140625" style="51" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="47" t="s">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -3218,78 +3254,78 @@
       <c r="M2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="37" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="70">
+      <c r="D3" s="57">
         <f>5530841+4558672</f>
         <v>10089513</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="68">
         <v>12239024</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="68">
         <v>1251571</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="68">
         <v>1819435</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="68">
         <f>2352370+1780296+1275021</f>
         <v>5407687</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="68">
         <v>4446881</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="68">
         <v>16007230</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="71">
         <f>868562+5085161+5437423+4587135</f>
         <v>15978281</v>
       </c>
-      <c r="L3" s="85">
+      <c r="L3" s="72">
         <f>12689007+441111</f>
         <v>13130118</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="72">
         <f>471461+1434351+3257426+1543387</f>
         <v>6706625</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="51" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="47" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="36" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3303,7 +3339,7 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -3333,10 +3369,10 @@
       <c r="M6" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3350,38 +3386,38 @@
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="57">
         <v>3729</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="68">
         <v>19834</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="68">
         <v>367</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="68">
         <v>617</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="68">
         <v>4080</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="68">
         <v>1390</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="68">
         <f>17527+15411</f>
         <v>32938</v>
       </c>
-      <c r="K7" s="84">
+      <c r="K7" s="71">
         <v>6543</v>
       </c>
-      <c r="L7" s="85">
+      <c r="L7" s="72">
         <v>3297</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="72">
         <v>2963</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3395,38 +3431,38 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="57">
         <v>1363</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="68">
         <v>9123</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="68">
         <v>96</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="68">
         <v>249</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="68">
         <v>782</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="68">
         <v>2708</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="68">
         <f>6839+5176</f>
         <v>12015</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="71">
         <v>2053</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="72">
         <v>1097</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="72">
         <v>872</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3440,38 +3476,38 @@
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="57">
         <v>3388</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="68">
         <v>18300</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="68">
         <v>328</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="68">
         <v>564</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="68">
         <v>3600</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="68">
         <v>1593</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="68">
         <f>15988+13933</f>
         <v>29921</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="71">
         <v>5894</v>
       </c>
-      <c r="L9" s="85">
+      <c r="L9" s="72">
         <v>2979</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="72">
         <v>2660</v>
       </c>
-      <c r="N9" s="64" t="s">
+      <c r="N9" s="51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3485,50 +3521,50 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="75">
         <f>1675+181</f>
         <v>1856</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="76">
         <f>2032+903</f>
         <v>2935</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="76">
         <f>208+1354</f>
         <v>1562</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="76">
         <f>1532+903</f>
         <v>2435</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="76">
         <f>402+181</f>
         <v>583</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="76">
         <f>6157+181</f>
         <v>6338</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="76">
         <f>(1516+1437)+(632+632)</f>
         <v>4217</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="77">
         <f>943+3611</f>
         <v>4554</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="78">
         <f>2180+0</f>
         <v>2180</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="78">
         <f>1113+451</f>
         <v>1564</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="64" t="s">
+      <c r="O10" s="51" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3542,41 +3578,41 @@
       <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="75">
         <v>24</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="76">
         <v>26</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="76">
         <v>2</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="76">
         <v>3</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="76">
         <v>16</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="76">
         <v>6</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="76">
         <f>46+82</f>
         <v>128</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="77">
         <v>33</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="78">
         <v>18</v>
       </c>
-      <c r="M11" s="91">
+      <c r="M11" s="78">
         <v>11</v>
       </c>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="76"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -3588,41 +3624,41 @@
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="75">
         <v>1100</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="76">
         <v>3000</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="76">
         <v>200</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="76">
         <v>400</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="76">
         <v>1000</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="76">
         <v>700</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="76">
         <f>3300+5000</f>
         <v>8300</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="77">
         <v>2800</v>
       </c>
-      <c r="L12" s="91">
+      <c r="L12" s="78">
         <v>1400</v>
       </c>
-      <c r="M12" s="91">
+      <c r="M12" s="78">
         <v>700</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="O12" s="76"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -3634,41 +3670,41 @@
       <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="75">
         <v>540</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="76">
         <v>560</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="76">
         <v>100</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="76">
         <v>180</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="76">
         <v>290</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="76">
         <v>150</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="76">
         <f>900+1800</f>
         <v>2700</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="77">
         <v>1000</v>
       </c>
-      <c r="L13" s="91">
+      <c r="L13" s="78">
         <v>470</v>
       </c>
-      <c r="M13" s="91">
+      <c r="M13" s="78">
         <v>250</v>
       </c>
-      <c r="N13" s="64" t="s">
+      <c r="N13" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="O13" s="76"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -3680,61 +3716,61 @@
       <c r="C14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="75">
         <v>27912</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="76">
         <v>158718</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="76">
         <v>2539</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G14" s="76">
         <v>4746</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="76">
         <v>26651</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I14" s="76">
         <v>22462</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="76">
         <f>133558+112848</f>
         <v>246406</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="77">
         <v>47119</v>
       </c>
-      <c r="L14" s="91">
+      <c r="L14" s="78">
         <v>24085</v>
       </c>
-      <c r="M14" s="91">
+      <c r="M14" s="78">
         <v>21017</v>
       </c>
-      <c r="N14" s="64" t="s">
+      <c r="N14" s="51" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="47" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -3746,7 +3782,7 @@
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3776,8 +3812,8 @@
       <c r="M17" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -3789,43 +3825,43 @@
       <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="59">
         <f>D7*1000/D$3</f>
         <v>0.36959167404809329</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="73">
         <f t="shared" ref="E18:M18" si="0">E7*1000/E$3</f>
         <v>1.6205540572516239</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="73">
         <f t="shared" si="0"/>
         <v>0.29323146669266065</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="73">
         <f t="shared" si="0"/>
         <v>0.33911626411495877</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="73">
         <f t="shared" si="0"/>
         <v>0.75448153711559118</v>
       </c>
-      <c r="I18" s="86">
+      <c r="I18" s="73">
         <f t="shared" si="0"/>
         <v>0.31257863657696261</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="73">
         <f t="shared" si="0"/>
         <v>2.0576951789909934</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="69">
         <f t="shared" si="0"/>
         <v>0.40949336164509814</v>
       </c>
-      <c r="L18" s="87">
+      <c r="L18" s="74">
         <f t="shared" si="0"/>
         <v>0.25110208453572164</v>
       </c>
-      <c r="M18" s="87">
+      <c r="M18" s="74">
         <f t="shared" si="0"/>
         <v>0.44180194956479601</v>
       </c>
@@ -3840,43 +3876,43 @@
       <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="59">
         <f t="shared" ref="D19:M19" si="1">D8*1000/D$3</f>
         <v>0.13509076206155837</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="73">
         <f t="shared" si="1"/>
         <v>0.74540257458437864</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="73">
         <f t="shared" si="1"/>
         <v>7.6703598916881263E-2</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="73">
         <f t="shared" si="1"/>
         <v>0.13685567222791692</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="73">
         <f t="shared" si="1"/>
         <v>0.14460896128048831</v>
       </c>
-      <c r="I19" s="86">
+      <c r="I19" s="73">
         <f t="shared" si="1"/>
         <v>0.60896614953267247</v>
       </c>
-      <c r="J19" s="86">
+      <c r="J19" s="73">
         <f t="shared" si="1"/>
         <v>0.75059832338262145</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="69">
         <f t="shared" si="1"/>
         <v>0.12848691295390285</v>
       </c>
-      <c r="L19" s="87">
+      <c r="L19" s="74">
         <f t="shared" si="1"/>
         <v>8.3548373289562217E-2</v>
       </c>
-      <c r="M19" s="87">
+      <c r="M19" s="74">
         <f t="shared" si="1"/>
         <v>0.13002068849831325</v>
       </c>
@@ -3891,43 +3927,43 @@
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="59">
         <f t="shared" ref="D20:M20" si="2">D9*1000/D$3</f>
         <v>0.33579420532983106</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="73">
         <f t="shared" si="2"/>
         <v>1.4952172656904668</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="73">
         <f t="shared" si="2"/>
         <v>0.26207062963267763</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="73">
         <f t="shared" si="2"/>
         <v>0.30998634191383589</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="73">
         <f t="shared" si="2"/>
         <v>0.6657190033372864</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="73">
         <f t="shared" si="2"/>
         <v>0.35822861012021684</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="73">
         <f t="shared" si="2"/>
         <v>1.8692178471853031</v>
       </c>
-      <c r="K20" s="82">
+      <c r="K20" s="69">
         <f t="shared" si="2"/>
         <v>0.36887572574296323</v>
       </c>
-      <c r="L20" s="87">
+      <c r="L20" s="74">
         <f t="shared" si="2"/>
         <v>0.22688295718286766</v>
       </c>
-      <c r="M20" s="87">
+      <c r="M20" s="74">
         <f t="shared" si="2"/>
         <v>0.39662274243751516</v>
       </c>
@@ -3942,43 +3978,43 @@
       <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="59">
         <f t="shared" ref="D21:M21" si="3">D10*1000/D$3</f>
         <v>0.18395337812637735</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="73">
         <f t="shared" si="3"/>
         <v>0.23980670354106667</v>
       </c>
-      <c r="F21" s="86">
+      <c r="F21" s="73">
         <f t="shared" si="3"/>
         <v>1.2480314740434222</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="73">
         <f t="shared" si="3"/>
         <v>1.338327557730834</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="73">
         <f t="shared" si="3"/>
         <v>0.1078094941515661</v>
       </c>
-      <c r="I21" s="86">
+      <c r="I21" s="73">
         <f t="shared" si="3"/>
         <v>1.4252686321041648</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J21" s="73">
         <f t="shared" si="3"/>
         <v>0.26344345648809941</v>
       </c>
-      <c r="K21" s="82">
+      <c r="K21" s="69">
         <f t="shared" si="3"/>
         <v>0.28501188582176018</v>
       </c>
-      <c r="L21" s="87">
+      <c r="L21" s="74">
         <f t="shared" si="3"/>
         <v>0.16603049568937614</v>
       </c>
-      <c r="M21" s="87">
+      <c r="M21" s="74">
         <f t="shared" si="3"/>
         <v>0.23320224404972695</v>
       </c>
@@ -3993,47 +4029,47 @@
       <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="59">
         <f t="shared" ref="D22:M22" si="4">D11*1000/D$3</f>
         <v>2.3787074757721212E-3</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="73">
         <f t="shared" si="4"/>
         <v>2.1243523993416469E-3</v>
       </c>
-      <c r="F22" s="86">
+      <c r="F22" s="73">
         <f t="shared" si="4"/>
         <v>1.597991644101693E-3</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="73">
         <f t="shared" si="4"/>
         <v>1.6488635208182761E-3</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="73">
         <f t="shared" si="4"/>
         <v>2.9587511259434947E-3</v>
       </c>
-      <c r="I22" s="86">
+      <c r="I22" s="73">
         <f t="shared" si="4"/>
         <v>1.3492603017710616E-3</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="73">
         <f t="shared" si="4"/>
         <v>7.9963866327903074E-3</v>
       </c>
-      <c r="K22" s="82">
+      <c r="K22" s="69">
         <f t="shared" si="4"/>
         <v>2.0653035204475376E-3</v>
       </c>
-      <c r="L22" s="87">
+      <c r="L22" s="74">
         <f t="shared" si="4"/>
         <v>1.3708940011049405E-3</v>
       </c>
-      <c r="M22" s="87">
+      <c r="M22" s="74">
         <f t="shared" si="4"/>
         <v>1.6401692356438596E-3</v>
       </c>
-      <c r="O22" s="76"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -4045,47 +4081,47 @@
       <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="59">
         <f t="shared" ref="D23:M23" si="5">D12*1000/D$3</f>
         <v>0.10902409263955555</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="73">
         <f t="shared" si="5"/>
         <v>0.24511758453942079</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="73">
         <f t="shared" si="5"/>
         <v>0.15979916441016931</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="73">
         <f t="shared" si="5"/>
         <v>0.2198484694424368</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="73">
         <f t="shared" si="5"/>
         <v>0.18492194537146844</v>
       </c>
-      <c r="I23" s="86">
+      <c r="I23" s="73">
         <f t="shared" si="5"/>
         <v>0.15741370187329051</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="73">
         <f t="shared" si="5"/>
         <v>0.51851569571999656</v>
       </c>
-      <c r="K23" s="82">
+      <c r="K23" s="69">
         <f t="shared" si="5"/>
         <v>0.17523787446221531</v>
       </c>
-      <c r="L23" s="87">
+      <c r="L23" s="74">
         <f t="shared" si="5"/>
         <v>0.10662508897482871</v>
       </c>
-      <c r="M23" s="87">
+      <c r="M23" s="74">
         <f t="shared" si="5"/>
         <v>0.10437440590460925</v>
       </c>
-      <c r="O23" s="76"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -4097,47 +4133,47 @@
       <c r="C24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="59">
         <f t="shared" ref="D24:M24" si="6">D13*1000/D$3</f>
         <v>5.3520918204872724E-2</v>
       </c>
-      <c r="E24" s="86">
+      <c r="E24" s="73">
         <f t="shared" si="6"/>
         <v>4.5755282447358547E-2</v>
       </c>
-      <c r="F24" s="86">
+      <c r="F24" s="73">
         <f t="shared" si="6"/>
         <v>7.9899582205084654E-2</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G24" s="73">
         <f t="shared" si="6"/>
         <v>9.8931811249096557E-2</v>
       </c>
-      <c r="H24" s="86">
+      <c r="H24" s="73">
         <f t="shared" si="6"/>
         <v>5.3627364157725843E-2</v>
       </c>
-      <c r="I24" s="86">
+      <c r="I24" s="73">
         <f t="shared" si="6"/>
         <v>3.3731507544276541E-2</v>
       </c>
-      <c r="J24" s="86">
+      <c r="J24" s="73">
         <f t="shared" si="6"/>
         <v>0.16867378053542056</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K24" s="69">
         <f t="shared" si="6"/>
         <v>6.2584955165076894E-2</v>
       </c>
-      <c r="L24" s="87">
+      <c r="L24" s="74">
         <f t="shared" si="6"/>
         <v>3.5795565584406781E-2</v>
       </c>
-      <c r="M24" s="87">
+      <c r="M24" s="74">
         <f t="shared" si="6"/>
         <v>3.7276573537360448E-2</v>
       </c>
-      <c r="O24" s="76"/>
+      <c r="O24" s="63"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -4149,49 +4185,49 @@
       <c r="C25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="59">
         <f t="shared" ref="D25:M25" si="7">D14*1000/D$3</f>
         <v>2.7664367943229768</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="73">
         <f t="shared" si="7"/>
         <v>12.968190927642596</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="73">
         <f t="shared" si="7"/>
         <v>2.0286503921870991</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G25" s="73">
         <f t="shared" si="7"/>
         <v>2.6085020899345128</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="73">
         <f t="shared" si="7"/>
         <v>4.9283547660950049</v>
       </c>
-      <c r="I25" s="86">
+      <c r="I25" s="73">
         <f t="shared" si="7"/>
         <v>5.051180816396931</v>
       </c>
-      <c r="J25" s="86">
+      <c r="J25" s="73">
         <f t="shared" si="7"/>
         <v>15.393419098744754</v>
       </c>
-      <c r="K25" s="82">
+      <c r="K25" s="69">
         <f t="shared" si="7"/>
         <v>2.948940502423258</v>
       </c>
-      <c r="L25" s="87">
+      <c r="L25" s="74">
         <f t="shared" si="7"/>
         <v>1.8343323342562496</v>
       </c>
-      <c r="M25" s="87">
+      <c r="M25" s="74">
         <f t="shared" si="7"/>
         <v>3.133766984138818</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="92"/>
+      <c r="D29" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4213,10 +4249,10 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4224,20 +4260,20 @@
     <col min="1" max="1" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" style="80" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="80" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" style="67" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="67" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="51" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="24.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="56.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="56.28515625" style="51" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="63.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="63.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46.42578125" style="7" customWidth="1"/>
@@ -4245,38 +4281,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="47" t="s">
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="47" t="s">
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="47" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -4288,7 +4324,7 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="35" t="s">
         <v>159</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -4303,7 +4339,7 @@
       <c r="H2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="35" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -4315,7 +4351,7 @@
       <c r="L2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="37" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -4330,7 +4366,7 @@
       <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="37" t="s">
         <v>175</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -4356,40 +4392,40 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="57">
         <f>(17527+15411)*1000*0.81</f>
         <v>26679780</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="58">
         <v>319</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="58">
         <f>8760-(2193)</f>
         <v>6567</v>
       </c>
       <c r="G3" s="10">
         <v>0.40400000000000003</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="58">
         <v>0.115</v>
       </c>
-      <c r="I3" s="72">
-        <f>D3*E3*(0.000000001)</f>
+      <c r="I3" s="59">
+        <f t="shared" ref="I3:I10" si="0">D3*E3*(0.000000001)</f>
         <v>8.5108498200000007</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="60">
         <f>G3*H3</f>
         <v>4.6460000000000008E-2</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="60">
         <f>(F3*J3)/1000</f>
         <v>0.30510282000000005</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="61">
         <f>E3/K3</f>
         <v>1045.549169293158</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -4398,14 +4434,14 @@
       <c r="O3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="Q3" s="65" t="s">
+      <c r="Q3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4417,40 +4453,40 @@
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="57">
         <f>(6839+5176)*1000*1.31</f>
         <v>15739650</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="58">
         <v>14</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="58">
         <f>8760-(6854)</f>
         <v>1906</v>
       </c>
       <c r="G4" s="10">
         <v>0.39700000000000002</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="58">
         <v>0.32200000000000001</v>
       </c>
-      <c r="I4" s="72">
-        <f>D4*E4*(0.000000001)</f>
+      <c r="I4" s="59">
+        <f t="shared" si="0"/>
         <v>0.22035510000000003</v>
       </c>
-      <c r="J4" s="73">
-        <f t="shared" ref="J4:J10" si="0">G4*H4</f>
+      <c r="J4" s="60">
+        <f t="shared" ref="J4:J10" si="1">G4*H4</f>
         <v>0.127834</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="60">
         <f>(F4*J4)/1000</f>
         <v>0.24365160400000002</v>
       </c>
-      <c r="L4" s="74">
-        <f t="shared" ref="L4:L10" si="1">E4/K4</f>
+      <c r="L4" s="61">
+        <f t="shared" ref="L4:L10" si="2">E4/K4</f>
         <v>57.459092286542052</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N4" s="7" t="s">
@@ -4459,14 +4495,14 @@
       <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -4478,40 +4514,40 @@
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="57">
         <f>(15988+13933)*1000*1.22</f>
         <v>36503620</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="58">
         <v>53</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="58">
         <f>8760-(2659)</f>
         <v>6101</v>
       </c>
       <c r="G5" s="10">
         <v>0.34</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="58">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I5" s="72">
-        <f>D5*E5*(0.000000001)</f>
+      <c r="I5" s="59">
+        <f t="shared" si="0"/>
         <v>1.93469186</v>
       </c>
-      <c r="J5" s="73">
-        <f t="shared" si="0"/>
+      <c r="J5" s="60">
+        <f t="shared" si="1"/>
         <v>0.18972000000000003</v>
       </c>
-      <c r="K5" s="73">
-        <f t="shared" ref="K5:K10" si="2">(F5*J5)/1000</f>
+      <c r="K5" s="60">
+        <f t="shared" ref="K5:K10" si="3">(F5*J5)/1000</f>
         <v>1.1574817200000003</v>
       </c>
-      <c r="L5" s="74">
-        <f t="shared" si="1"/>
+      <c r="L5" s="61">
+        <f t="shared" si="2"/>
         <v>45.789060063946401</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N5" s="7" t="s">
@@ -4520,14 +4556,14 @@
       <c r="O5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -4539,41 +4575,41 @@
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="57">
         <f>(1516+1437)*1000*1.26+(632+632)*1000*1.26</f>
         <v>5313420</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="61">
         <f>(((1516+1437)*1000*1.26)*139+((632+632)*1000*1.26)*258)/D6</f>
         <v>174.66895897557507</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="58">
         <v>8760</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="70">
         <f>(((1516+1437)*1000*1.26)*(2221/8760)+((632+632)*1000*1.26)*(3066/8760))/D6</f>
         <v>0.2824520071508777</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="53">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I6" s="72">
-        <f>D6*E6*(0.000000001)</f>
+      <c r="I6" s="59">
+        <f t="shared" si="0"/>
         <v>0.92808954000000021</v>
       </c>
-      <c r="J6" s="73">
-        <f t="shared" si="0"/>
+      <c r="J6" s="60">
+        <f t="shared" si="1"/>
         <v>0.15760821999018979</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="60">
+        <f t="shared" si="3"/>
+        <v>1.3806480071140625</v>
+      </c>
+      <c r="L6" s="61">
         <f t="shared" si="2"/>
-        <v>1.3806480071140625</v>
-      </c>
-      <c r="L6" s="74">
-        <f t="shared" si="1"/>
         <v>126.51230297335644</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -4585,8 +4621,8 @@
       <c r="P6" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="64" t="s">
+      <c r="Q6" s="52"/>
+      <c r="R6" s="51" t="s">
         <v>199</v>
       </c>
       <c r="S6" s="7" t="s">
@@ -4595,10 +4631,10 @@
       <c r="T6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="V6" s="65" t="s">
+      <c r="V6" s="52" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4612,48 +4648,48 @@
       <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="57">
         <f>(46+82)*1000*0.8</f>
         <v>102400</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="58">
         <v>180</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="53">
         <v>8760</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="55">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="56">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I7" s="72">
-        <f>D7*E7*(0.000000001)</f>
+      <c r="I7" s="59">
+        <f t="shared" si="0"/>
         <v>1.8432E-2</v>
       </c>
-      <c r="J7" s="73">
-        <f t="shared" si="0"/>
+      <c r="J7" s="60">
+        <f t="shared" si="1"/>
         <v>3.1707000000000006E-2</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="60">
+        <f t="shared" si="3"/>
+        <v>0.27775332000000003</v>
+      </c>
+      <c r="L7" s="61">
         <f t="shared" si="2"/>
-        <v>0.27775332000000003</v>
-      </c>
-      <c r="L7" s="74">
-        <f t="shared" si="1"/>
         <v>648.05706012803012</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="75"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="62"/>
       <c r="T7" s="7" t="s">
         <v>182</v>
       </c>
@@ -4674,57 +4710,57 @@
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="57">
         <f>(3300+5000)*1000*0.8</f>
         <v>6640000</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="58">
         <v>243</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="53">
         <v>8760</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="54">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="64">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I8" s="72">
-        <f>D8*E8*(0.000000001)</f>
+      <c r="I8" s="59">
+        <f t="shared" si="0"/>
         <v>1.6135200000000001</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="60">
         <f>G8*H8</f>
         <v>3.1707000000000006E-2</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="60">
         <f>(F8*J8)/1000</f>
         <v>0.27775332000000003</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="61">
         <f>E8/K8</f>
         <v>874.87703117284059</v>
       </c>
-      <c r="M8" s="64" t="s">
+      <c r="M8" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="N8" s="75" t="s">
+      <c r="N8" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="76"/>
-      <c r="S8" s="75"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -4736,48 +4772,48 @@
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="57">
         <f>(900+1800)*1000*1.49</f>
         <v>4023000</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="58">
         <v>190</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="53">
         <v>8760</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="55">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="56">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I9" s="72">
-        <f>D9*E9*(0.000000001)</f>
+      <c r="I9" s="59">
+        <f t="shared" si="0"/>
         <v>0.76436999999999999</v>
       </c>
-      <c r="J9" s="73">
-        <f t="shared" ref="J9" si="3">G9*H9</f>
+      <c r="J9" s="60">
+        <f t="shared" ref="J9" si="4">G9*H9</f>
         <v>3.1707000000000006E-2</v>
       </c>
-      <c r="K9" s="73">
-        <f t="shared" ref="K9" si="4">(F9*J9)/1000</f>
+      <c r="K9" s="60">
+        <f t="shared" ref="K9" si="5">(F9*J9)/1000</f>
         <v>0.27775332000000003</v>
       </c>
-      <c r="L9" s="74">
-        <f t="shared" ref="L9" si="5">E9/K9</f>
+      <c r="L9" s="61">
+        <f t="shared" ref="L9" si="6">E9/K9</f>
         <v>684.06023013514289</v>
       </c>
-      <c r="M9" s="64" t="s">
+      <c r="M9" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="75"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="62"/>
       <c r="T9" s="7" t="s">
         <v>182</v>
       </c>
@@ -4798,39 +4834,39 @@
       <c r="C10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="57">
         <f>(133558+112848)*1000*0.8</f>
         <v>197124800</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="58">
         <v>36</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="58">
         <v>8760</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="58">
         <v>0.57299999999999995</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="58">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I10" s="72">
-        <f>D10*E10*(0.000000001)</f>
+      <c r="I10" s="59">
+        <f t="shared" si="0"/>
         <v>7.0964928</v>
       </c>
-      <c r="J10" s="73">
-        <f t="shared" si="0"/>
+      <c r="J10" s="60">
+        <f t="shared" si="1"/>
         <v>0.12892499999999998</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="60">
+        <f t="shared" si="3"/>
+        <v>1.1293829999999998</v>
+      </c>
+      <c r="L10" s="61">
         <f t="shared" si="2"/>
-        <v>1.1293829999999998</v>
-      </c>
-      <c r="L10" s="74">
-        <f t="shared" si="1"/>
         <v>31.875811837082733</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="51" t="s">
         <v>129</v>
       </c>
       <c r="N10" s="7" t="s">
@@ -4839,22 +4875,22 @@
       <c r="O10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="Q10" s="65" t="s">
+      <c r="Q10" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="U10" s="65" t="s">
+      <c r="U10" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="V10" s="65" t="s">
+      <c r="V10" s="52" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4895,76 +4931,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="84"/>
+      <c r="F2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="84"/>
+      <c r="I2" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="86"/>
+      <c r="I3" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="86"/>
+      <c r="I4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4981,16 +5017,16 @@
       <c r="F6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="26">
         <v>2E-3</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="44">
         <v>2012</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="45">
         <v>75757000</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="48">
         <f>J6/J$6</f>
         <v>1</v>
       </c>
@@ -5008,16 +5044,16 @@
       <c r="F7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="26">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="41">
         <v>2015</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="46">
         <v>72424000</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="25">
         <f t="shared" ref="K7:K12" si="0">J7/J$6</f>
         <v>0.95600406563089879</v>
       </c>
@@ -5035,16 +5071,16 @@
       <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="41">
         <v>2018</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="46">
         <v>68845000</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="25">
         <f t="shared" si="0"/>
         <v>0.90876090658288999</v>
       </c>
@@ -5062,16 +5098,16 @@
       <c r="F9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="26">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="24">
         <v>2020</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="50">
         <v>61161000</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
         <v>0.80733133571815141</v>
       </c>
@@ -5089,16 +5125,16 @@
       <c r="F10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="26">
         <v>0.115</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="41">
         <v>2030</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="46">
         <v>50080000</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="25">
         <f t="shared" si="0"/>
         <v>0.66106102406378286</v>
       </c>
@@ -5116,16 +5152,16 @@
       <c r="F11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="26">
         <v>0.115</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="41">
         <v>2040</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="46">
         <v>38142000</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="25">
         <f t="shared" si="0"/>
         <v>0.50347822643452089</v>
       </c>
@@ -5140,20 +5176,20 @@
       <c r="D12" s="2">
         <v>0.31</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="31">
         <f>G9/G11</f>
         <v>0.63478260869565206</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="42">
         <v>2050</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="47">
         <v>29003000</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="49">
         <f t="shared" si="0"/>
         <v>0.38284250960307298</v>
       </c>
@@ -5168,10 +5204,10 @@
       <c r="D13" s="2">
         <v>0.3</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="32">
         <f>G11</f>
         <v>0.115</v>
       </c>
@@ -5620,37 +5656,37 @@
       <c r="B54" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="27">
         <f>AVERAGE(C6:C53)</f>
         <v>0.44229166666666636</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="28">
         <f>AVERAGE(D6:D53)</f>
         <v>0.30750000000000022</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="89">
         <f>(5*C54+2*D54)/7</f>
         <v>0.40377976190476172</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5682,76 +5718,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="84"/>
+      <c r="F2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="84"/>
+      <c r="I2" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="86"/>
+      <c r="I3" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="86"/>
+      <c r="I4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5768,20 +5804,20 @@
       <c r="F6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="26">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="44">
         <v>2012</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="45">
         <v>30358000</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="48">
         <f>J6/J$6</f>
         <v>1</v>
       </c>
-      <c r="M6" s="56"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -5796,20 +5832,20 @@
       <c r="F7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="26">
         <v>0.1</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="41">
         <v>2015</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="46">
         <v>34803000</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="25">
         <f t="shared" ref="K7:K12" si="0">J7/J$6</f>
         <v>1.1464193952170763</v>
       </c>
-      <c r="M7" s="56"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -5824,20 +5860,20 @@
       <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="26">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="41">
         <v>2018</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="46">
         <v>39673000</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="25">
         <f t="shared" si="0"/>
         <v>1.3068383951511957</v>
       </c>
-      <c r="M8" s="56"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -5852,20 +5888,20 @@
       <c r="F9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="26">
         <v>0.182</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="24">
         <v>2020</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="50">
         <v>39782000</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
         <v>1.3104288820080374</v>
       </c>
-      <c r="M9" s="56"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -5880,20 +5916,20 @@
       <c r="F10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="26">
         <v>0.311</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="41">
         <v>2030</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="46">
         <v>59680000</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="25">
         <f t="shared" si="0"/>
         <v>1.9658739047368075</v>
       </c>
-      <c r="M10" s="56"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -5908,20 +5944,20 @@
       <c r="F11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="26">
         <v>0.32200000000000001</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="41">
         <v>2040</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="46">
         <v>83274000</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="25">
         <f t="shared" si="0"/>
         <v>2.7430660781342646</v>
       </c>
-      <c r="M11" s="56"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -5933,24 +5969,24 @@
       <c r="D12" s="2">
         <v>0.35</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="31">
         <f>G9/G11</f>
         <v>0.56521739130434778</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="42">
         <v>2050</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="47">
         <v>116011000</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="49">
         <f t="shared" si="0"/>
         <v>3.8214309243033138</v>
       </c>
-      <c r="M12" s="56"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -5962,10 +5998,10 @@
       <c r="D13" s="2">
         <v>0.35</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="32">
         <f>G11</f>
         <v>0.32200000000000001</v>
       </c>
@@ -6411,27 +6447,27 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="27">
         <f>AVERAGE(C6:C53)</f>
         <v>0.42083333333333323</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="28">
         <f>AVERAGE(D6:D53)</f>
         <v>0.33854166666666657</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="89">
         <f>(5*C54+2*D54)/7</f>
         <v>0.39732142857142844</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6482,112 +6518,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="84"/>
+      <c r="F2" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="13" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="L2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="84"/>
+      <c r="O2" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="L3" s="16" t="s">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="L3" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="O3" s="16" t="s">
+      <c r="M3" s="86"/>
+      <c r="O3" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="86"/>
     </row>
     <row r="4" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="L4" s="16" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="L4" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="O4" s="16" t="s">
+      <c r="M4" s="86"/>
+      <c r="O4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="86"/>
     </row>
     <row r="5" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6604,32 +6640,32 @@
       <c r="F6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="21">
         <v>1</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="21">
         <v>240</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="21">
         <v>50</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="22">
         <f>I6/H6</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="26">
         <v>0.16800000000000001</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="44">
         <v>2012</v>
       </c>
-      <c r="P6" s="58">
+      <c r="P6" s="45">
         <v>70746000</v>
       </c>
-      <c r="Q6" s="61">
+      <c r="Q6" s="48">
         <f>P6/P$6</f>
         <v>1</v>
       </c>
@@ -6647,32 +6683,32 @@
       <c r="F7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="21">
         <v>2</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="21">
         <v>40</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="21">
         <v>26</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="22">
         <f t="shared" ref="J7:J17" si="0">I7/H7</f>
         <v>0.65</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="26">
         <v>0.34299999999999997</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="41">
         <v>2015</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="46">
         <v>79058000</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q12" si="1">P7/P$6</f>
         <v>1.1174907415260227</v>
       </c>
@@ -6690,32 +6726,32 @@
       <c r="F8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="21">
         <v>2</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="21">
         <v>29</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="21">
         <v>25</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="22">
         <f t="shared" si="0"/>
         <v>0.86206896551724133</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="26">
         <v>0.40500000000000003</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="41">
         <v>2018</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="46">
         <v>87875000</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="25">
         <f t="shared" si="1"/>
         <v>1.2421196958131908</v>
       </c>
@@ -6733,32 +6769,32 @@
       <c r="F9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="21">
         <v>94</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="21">
         <v>49</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="22">
         <f t="shared" si="0"/>
         <v>0.52127659574468088</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="26">
         <v>0.39799999999999996</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="24">
         <v>2020</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="50">
         <v>86662000</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="19">
         <f t="shared" si="1"/>
         <v>1.2249738501116672</v>
       </c>
@@ -6776,32 +6812,32 @@
       <c r="F10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="21">
         <v>130</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="21">
         <v>48</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="22">
         <f t="shared" si="0"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="26">
         <v>0.47399999999999998</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="41">
         <v>2030</v>
       </c>
-      <c r="P10" s="59">
+      <c r="P10" s="46">
         <v>78330000</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="25">
         <f t="shared" si="1"/>
         <v>1.1072004070901535</v>
       </c>
@@ -6819,32 +6855,32 @@
       <c r="F11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="21">
         <v>3</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="21">
         <v>50</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="21">
         <v>17</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="22">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="26">
         <v>0.66700000000000004</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="41">
         <v>2040</v>
       </c>
-      <c r="P11" s="59">
+      <c r="P11" s="46">
         <v>71095000</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="25">
         <f t="shared" si="1"/>
         <v>1.0049331410963165</v>
       </c>
@@ -6862,33 +6898,33 @@
       <c r="F12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="21">
         <v>1</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="21">
         <v>38</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="21">
         <v>21</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="22">
         <f t="shared" si="0"/>
         <v>0.55263157894736847</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="31">
         <f>M9/M11</f>
         <v>0.59670164917541224</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="42">
         <v>2050</v>
       </c>
-      <c r="P12" s="60">
+      <c r="P12" s="47">
         <v>71790000</v>
       </c>
-      <c r="Q12" s="62">
+      <c r="Q12" s="49">
         <f t="shared" si="1"/>
         <v>1.0147570180646255</v>
       </c>
@@ -6906,23 +6942,23 @@
       <c r="F13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="21">
         <v>1</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="21">
         <v>38</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="21">
         <v>14</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="22">
         <f t="shared" si="0"/>
         <v>0.36842105263157893</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="32">
         <f>M11</f>
         <v>0.66700000000000004</v>
       </c>
@@ -6940,16 +6976,16 @@
       <c r="F14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="21">
         <v>1</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="21">
         <v>42</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="21">
         <v>25</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="22">
         <f t="shared" si="0"/>
         <v>0.59523809523809523</v>
       </c>
@@ -6967,16 +7003,16 @@
       <c r="F15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="21">
         <v>1</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="21">
         <v>26</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="21">
         <v>17</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="22">
         <f t="shared" si="0"/>
         <v>0.65384615384615385</v>
       </c>
@@ -6994,16 +7030,16 @@
       <c r="F16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="21">
         <v>1</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="21">
         <v>29</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="21">
         <v>22</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="22">
         <f t="shared" si="0"/>
         <v>0.75862068965517238</v>
       </c>
@@ -7021,16 +7057,16 @@
       <c r="F17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="21">
         <v>1</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="21">
         <v>28</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="21">
         <v>24</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="22">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
@@ -7045,13 +7081,13 @@
       <c r="D18" s="2">
         <v>0.19</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="42">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="31">
         <f>SUMPRODUCT(J6:J17,G6:G17)/SUM(G6:G17)</f>
         <v>0.55805494105028075</v>
       </c>
@@ -7445,32 +7481,27 @@
       <c r="B54" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="27">
         <f>AVERAGE(C6:C53)</f>
         <v>0.39874999999999999</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="28">
         <f>AVERAGE(D6:D53)</f>
         <v>0.19395833333333337</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="89">
         <f>(5*C54+2*D54)/7</f>
         <v>0.34023809523809528</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F3:J3"/>
@@ -7479,6 +7510,11 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7507,221 +7543,221 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="84"/>
+      <c r="F2" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="57">
+      <c r="B6" s="44">
         <v>2012</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="45">
         <v>19194000</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="48">
         <f>C6/C$6</f>
         <v>1</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="44">
         <v>2012</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="45">
         <v>9028000</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="48">
         <f>G6/G$6</f>
         <v>1</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="54">
+      <c r="B7" s="41">
         <v>2015</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="46">
         <v>20926000</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="25">
         <f t="shared" ref="D7:D12" si="0">C7/C$6</f>
         <v>1.0902365322496614</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="41">
         <v>2015</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="46">
         <v>9843000</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="25">
         <f t="shared" ref="H7:H12" si="1">G7/G$6</f>
         <v>1.0902747009304385</v>
       </c>
-      <c r="K7" s="56"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="54">
+      <c r="B8" s="41">
         <v>2018</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="46">
         <v>22815000</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="25">
         <f t="shared" si="0"/>
         <v>1.1886527039699906</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="41">
         <v>2018</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="46">
         <v>10731000</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="25">
         <f t="shared" si="1"/>
         <v>1.1886353566681436</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+      <c r="B9" s="24">
         <v>2020</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="50">
         <v>24169000</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>1.2591955819526937</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="24">
         <v>2020</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="50">
         <v>11368000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="19">
         <f t="shared" si="1"/>
         <v>1.2591936198493576</v>
       </c>
-      <c r="K9" s="56"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="54">
+      <c r="B10" s="41">
         <v>2030</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="46">
         <v>30909000</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>1.6103469834323225</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="41">
         <v>2030</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="46">
         <v>15163000</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="25">
         <f t="shared" si="1"/>
         <v>1.6795525033229952</v>
       </c>
-      <c r="K10" s="56"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="54">
+      <c r="B11" s="41">
         <v>2040</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="46">
         <v>34006000</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="25">
         <f t="shared" si="0"/>
         <v>1.7716994894237783</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="41">
         <v>2040</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="46">
         <v>16592000</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="25">
         <f t="shared" si="1"/>
         <v>1.8378378378378379</v>
       </c>
-      <c r="K11" s="56"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="55">
+      <c r="B12" s="42">
         <v>2050</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="47">
         <v>37269000</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="49">
         <f t="shared" si="0"/>
         <v>1.9417005314160676</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="42">
         <v>2050</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="47">
         <v>18156000</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="49">
         <f t="shared" si="1"/>
         <v>2.0110766504209128</v>
       </c>
-      <c r="K12" s="56"/>
+      <c r="K12" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7755,105 +7791,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="57">
+      <c r="B6" s="44">
         <v>2012</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="45">
         <v>270000</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="48">
         <f>C6/C$6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="54">
+      <c r="B7" s="41">
         <v>2016</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="46">
         <v>240000</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="25">
         <f t="shared" ref="D7:D11" si="0">C7/C$6</f>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="B8" s="24">
         <v>2020</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="50">
         <v>190000</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>0.70370370370370372</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="54">
+      <c r="B9" s="41">
         <v>2030</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="46">
         <v>100000</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="25">
         <f t="shared" si="0"/>
         <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="54">
+      <c r="B10" s="41">
         <v>2040</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="46">
         <v>50000</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="55">
+      <c r="B11" s="42">
         <v>2050</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="47">
         <v>30000</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="49">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
@@ -7898,98 +7934,98 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="84"/>
+      <c r="F2" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="M2" s="13" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="M2" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="84"/>
     </row>
     <row r="3" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="86"/>
+      <c r="F3" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="M3" s="16" t="s">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="M3" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="M4" s="16" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="M4" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8003,32 +8039,32 @@
       <c r="D6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="38" t="s">
         <v>142</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="21">
         <v>1010</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="21">
         <v>540</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="22">
         <f>J6/I6</f>
         <v>0.53465346534653468</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="44">
         <v>2012</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="45">
         <v>20000000</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="48">
         <f>N6/N$6</f>
         <v>1</v>
       </c>
@@ -8043,32 +8079,32 @@
       <c r="D7" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="38" t="s">
         <v>142</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="21">
         <v>1</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="21">
         <v>1300</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="21">
         <v>303</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="22">
         <f t="shared" ref="K7:K16" si="0">J7/I7</f>
         <v>0.23307692307692307</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="41">
         <v>2016</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="46">
         <v>17000000</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="25">
         <f t="shared" ref="O7:O11" si="1">N7/N$6</f>
         <v>0.85</v>
       </c>
@@ -8083,32 +8119,32 @@
       <c r="D8" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="38" t="s">
         <v>142</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="21">
         <v>1</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="21">
         <v>1500</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="21">
         <v>433</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="22">
         <f t="shared" si="0"/>
         <v>0.28866666666666668</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="24">
         <v>2020</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="50">
         <v>13000000</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="19">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
@@ -8129,26 +8165,26 @@
       <c r="G9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="21">
         <v>1</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="21">
         <v>900</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="21">
         <v>732</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="22">
         <f t="shared" si="0"/>
         <v>0.81333333333333335</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="41">
         <v>2030</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="46">
         <v>7000000</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="25">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
@@ -8169,26 +8205,26 @@
       <c r="G10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="21">
         <v>1</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="21">
         <v>470</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="21">
         <v>56</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>0.11914893617021277</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="41">
         <v>2040</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="46">
         <v>4000000</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="25">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -8206,29 +8242,29 @@
       <c r="F11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="21">
         <v>1</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="21">
         <v>1000</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="21">
         <v>222</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="22">
         <f t="shared" si="0"/>
         <v>0.222</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="42">
         <v>2050</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="47">
         <v>3000000</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="49">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -8246,19 +8282,19 @@
       <c r="F12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="21">
         <v>1</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="21">
         <v>680</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="21">
         <v>61</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="22">
         <f t="shared" si="0"/>
         <v>8.9705882352941177E-2</v>
       </c>
@@ -8279,16 +8315,16 @@
       <c r="G13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="21">
         <v>1</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="21">
         <v>620</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="21">
         <v>120</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>0.19354838709677419</v>
       </c>
@@ -8309,16 +8345,16 @@
       <c r="G14" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="21">
         <v>1</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="21">
         <v>310</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="21">
         <v>89</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>0.2870967741935484</v>
       </c>
@@ -8339,16 +8375,16 @@
       <c r="G15" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="21">
         <v>1</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="21">
         <v>495</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="21">
         <v>67</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="22">
         <f t="shared" si="0"/>
         <v>0.13535353535353536</v>
       </c>
@@ -8369,16 +8405,16 @@
       <c r="G16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="21">
         <v>1</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="21">
         <v>1090</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="21">
         <v>65</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>5.9633027522935783E-2</v>
       </c>
@@ -8393,14 +8429,14 @@
       <c r="D17" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="42">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="31">
         <f>SUMPRODUCT(K6:K16,H6:H16)/SUM(H6:H16)</f>
         <v>0.27056517555576415</v>
       </c>
@@ -8805,24 +8841,24 @@
       <c r="B54" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="27">
         <f>AVERAGE(C6:C53)</f>
         <v>0.12624999999999997</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="28">
         <f>AVERAGE(D6:D53)</f>
         <v>9.354166666666669E-2</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="89">
         <f>(5*C54+2*D54)/7</f>
         <v>0.11690476190476189</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="10">
